--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H2">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I2">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J2">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.3601746978722222</v>
+        <v>0.633172315545</v>
       </c>
       <c r="R2">
-        <v>3.24157228085</v>
+        <v>5.698550839905</v>
       </c>
       <c r="S2">
-        <v>1.418379376728414E-05</v>
+        <v>2.148066630851427E-05</v>
       </c>
       <c r="T2">
-        <v>1.459758758513201E-05</v>
+        <v>2.167844661655401E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H3">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I3">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J3">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>65.96724220305001</v>
+        <v>110.126729147743</v>
       </c>
       <c r="R3">
-        <v>593.70517982745</v>
+        <v>991.1405623296868</v>
       </c>
       <c r="S3">
-        <v>0.002597810907684821</v>
+        <v>0.003736100682852225</v>
       </c>
       <c r="T3">
-        <v>0.002673598677245966</v>
+        <v>0.003770500320801497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H4">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I4">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J4">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>3.018049718683333</v>
+        <v>1.9670489541885</v>
       </c>
       <c r="R4">
-        <v>18.1082983121</v>
+        <v>11.802293725131</v>
       </c>
       <c r="S4">
-        <v>0.0001188517545571758</v>
+        <v>6.673305379921045E-05</v>
       </c>
       <c r="T4">
-        <v>8.154606707065736E-05</v>
+        <v>4.489832619926369E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H5">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I5">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J5">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>61.44089939240556</v>
+        <v>90.06056214973999</v>
       </c>
       <c r="R5">
-        <v>552.9680945316501</v>
+        <v>810.5450593476598</v>
       </c>
       <c r="S5">
-        <v>0.002419562093080453</v>
+        <v>0.003055346602497318</v>
       </c>
       <c r="T5">
-        <v>0.002490149684273796</v>
+        <v>0.00308347829001255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,43 +791,43 @@
         <v>177.042969</v>
       </c>
       <c r="H6">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I6">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J6">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>65.166389129781</v>
+        <v>89.71032803683501</v>
       </c>
       <c r="R6">
-        <v>586.4975021680289</v>
+        <v>807.3929523315151</v>
       </c>
       <c r="S6">
-        <v>0.002566273059811973</v>
+        <v>0.003043464746761577</v>
       </c>
       <c r="T6">
-        <v>0.002641140753496936</v>
+        <v>0.003071487033709166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J7">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>11935.44965989686</v>
+        <v>15603.18534925831</v>
       </c>
       <c r="R7">
-        <v>107419.0469390717</v>
+        <v>140428.6681433248</v>
       </c>
       <c r="S7">
-        <v>0.4700217908028536</v>
+        <v>0.5293453450326917</v>
       </c>
       <c r="T7">
-        <v>0.4837340679607895</v>
+        <v>0.5342192201674901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J8">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>546.0555767593589</v>
+        <v>278.6991828486255</v>
       </c>
       <c r="R8">
-        <v>3276.333460556154</v>
+        <v>1672.195097091753</v>
       </c>
       <c r="S8">
-        <v>0.02150384169678086</v>
+        <v>0.009454999847986012</v>
       </c>
       <c r="T8">
-        <v>0.01475412562326887</v>
+        <v>0.006361370313820215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J9">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>11116.49869339147</v>
+        <v>12760.13239252362</v>
       </c>
       <c r="R9">
-        <v>100048.4882405232</v>
+        <v>114841.1915327126</v>
       </c>
       <c r="S9">
-        <v>0.4377712421578421</v>
+        <v>0.4328934466130862</v>
       </c>
       <c r="T9">
-        <v>0.4505426513173805</v>
+        <v>0.4368792540359029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H10">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I10">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J10">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.02238762637211111</v>
+        <v>0.035721887355</v>
       </c>
       <c r="R10">
-        <v>0.201488637349</v>
+        <v>0.321496986195</v>
       </c>
       <c r="S10">
-        <v>8.816318227708728E-07</v>
+        <v>1.2118817000434E-06</v>
       </c>
       <c r="T10">
-        <v>9.073522896548456E-07</v>
+        <v>1.223039935663274E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H11">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I11">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J11">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>4.100371236417001</v>
+        <v>6.213055303916998</v>
       </c>
       <c r="R11">
-        <v>36.903341127753</v>
+        <v>55.91749773525299</v>
       </c>
       <c r="S11">
-        <v>0.0001614739189904878</v>
+        <v>0.0002107808008392</v>
       </c>
       <c r="T11">
-        <v>0.0001661847114990512</v>
+        <v>0.0002127215363415395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H12">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I12">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J12">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>0.1875949917456667</v>
+        <v>0.1109756371815</v>
       </c>
       <c r="R12">
-        <v>1.125569950474</v>
+        <v>0.6658538230889999</v>
       </c>
       <c r="S12">
-        <v>7.387550237190375E-06</v>
+        <v>3.764900284085667E-06</v>
       </c>
       <c r="T12">
-        <v>5.068714966592849E-06</v>
+        <v>2.533043393626005E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H13">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I13">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J13">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>3.819024233766779</v>
+        <v>5.080975869059999</v>
       </c>
       <c r="R13">
-        <v>34.37121810390101</v>
+        <v>45.72878282153999</v>
       </c>
       <c r="S13">
-        <v>0.0001503943848471704</v>
+        <v>0.0001723744776663949</v>
       </c>
       <c r="T13">
-        <v>0.00015478194629299</v>
+        <v>0.0001739615921814384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H14">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I14">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J14">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>4.366811936525833</v>
+        <v>1.6315440125325</v>
       </c>
       <c r="R14">
-        <v>26.200871619155</v>
+        <v>9.789264075195</v>
       </c>
       <c r="S14">
-        <v>0.0001719664382148537</v>
+        <v>5.535089207224548E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001179888909239821</v>
+        <v>3.724035191252284E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H15">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I15">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J15">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>799.7967163539225</v>
+        <v>283.7720493293088</v>
       </c>
       <c r="R15">
-        <v>4798.780298123535</v>
+        <v>1702.632295975853</v>
       </c>
       <c r="S15">
-        <v>0.03149624820269748</v>
+        <v>0.00962709921086705</v>
       </c>
       <c r="T15">
-        <v>0.0216100736415773</v>
+        <v>0.00647715961002967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H16">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I16">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J16">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>36.5912864352575</v>
+        <v>5.068646977722249</v>
       </c>
       <c r="R16">
-        <v>146.36514574103</v>
+        <v>20.274587910889</v>
       </c>
       <c r="S16">
-        <v>0.001440976458211506</v>
+        <v>0.0001719562142738266</v>
       </c>
       <c r="T16">
-        <v>0.0006591178135953971</v>
+        <v>7.712865674918953E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H17">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I17">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J17">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>744.9186587582659</v>
+        <v>232.0660068882567</v>
       </c>
       <c r="R17">
-        <v>4469.511952549595</v>
+        <v>1392.39604132954</v>
       </c>
       <c r="S17">
-        <v>0.02933513289980611</v>
+        <v>0.00787294758967037</v>
       </c>
       <c r="T17">
-        <v>0.02012729827916374</v>
+        <v>0.005296957787879765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H18">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I18">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J18">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>0.015523504326</v>
+        <v>0.02462837586</v>
       </c>
       <c r="R18">
-        <v>0.139711538934</v>
+        <v>0.22165538274</v>
       </c>
       <c r="S18">
-        <v>6.113205208646842E-07</v>
+        <v>8.355291451963826E-07</v>
       </c>
       <c r="T18">
-        <v>6.291550055172188E-07</v>
+        <v>8.432221659500091E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H19">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I19">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J19">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>2.843183532222</v>
+        <v>4.283577173377332</v>
       </c>
       <c r="R19">
-        <v>25.588651789998</v>
+        <v>38.552194560396</v>
       </c>
       <c r="S19">
-        <v>0.0001119654687067497</v>
+        <v>0.0001453223547667061</v>
       </c>
       <c r="T19">
-        <v>0.0001152319162823029</v>
+        <v>0.0001466603905463238</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H20">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I20">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J20">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>0.130077732114</v>
+        <v>0.076511906458</v>
       </c>
       <c r="R20">
-        <v>0.780466392684</v>
+        <v>0.4590714387479999</v>
       </c>
       <c r="S20">
-        <v>5.122502321569382E-06</v>
+        <v>2.595702134951838E-06</v>
       </c>
       <c r="T20">
-        <v>3.514629796090583E-06</v>
+        <v>1.746401139109443E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H21">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I21">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J21">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>2.648098473174</v>
+        <v>3.503067522586667</v>
       </c>
       <c r="R21">
-        <v>23.832886258566</v>
+        <v>31.52760770328</v>
       </c>
       <c r="S21">
-        <v>0.0001042829572450563</v>
+        <v>0.0001188432005971525</v>
       </c>
       <c r="T21">
-        <v>0.0001073252774961044</v>
+        <v>0.0001199374331728532</v>
       </c>
     </row>
   </sheetData>
